--- a/xlsx/族群_intext.xlsx
+++ b/xlsx/族群_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>民族 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_族群</t>
+    <t>民族 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_族群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%96%E5%85%88</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94</t>
   </si>
   <si>
-    <t>群體</t>
+    <t>群体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>少數民族</t>
+    <t>少数民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%97%8F%E8%A3%94</t>
   </si>
   <si>
-    <t>少數族裔</t>
+    <t>少数族裔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%8B%80</t>
   </si>
   <si>
-    <t>性狀</t>
+    <t>性状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>德國人</t>
+    <t>德国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%97%8F</t>
   </si>
   <si>
-    <t>漢族</t>
+    <t>汉族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>朝鮮族</t>
+    <t>朝鲜族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%92%8C%E6%97%8F</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>俄羅斯人</t>
+    <t>俄罗斯人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%B3%BB</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%8F%A0%E7%A9%86%E6%B2%81%E4%BA%BA</t>
   </si>
   <si>
-    <t>烏珠穆沁人</t>
+    <t>乌珠穆沁人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E7%B5%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>嘉絨人</t>
+    <t>嘉绒人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91</t>
   </si>
   <si>
-    <t>國民</t>
+    <t>国民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%A8%AE</t>
   </si>
   <si>
-    <t>人種</t>
+    <t>人种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>

--- a/xlsx/族群_intext.xlsx
+++ b/xlsx/族群_intext.xlsx
@@ -29,7 +29,7 @@
     <t>民族 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_族群</t>
+    <t>体育运动_体育运动_种族歧视_族群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%96%E5%85%88</t>
